--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>TC16</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Run program and input data into GUI</t>
   </si>
   <si>
-    <t>NO Database Available</t>
-  </si>
-  <si>
     <t>GUI does not close</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t xml:space="preserve">System </t>
+  </si>
+  <si>
+    <t>Database is connected</t>
   </si>
 </sst>
 </file>
@@ -1161,101 +1161,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1278,6 +1188,96 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3919,8 +3919,8 @@
   </sheetPr>
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -3939,12 +3939,12 @@
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="110"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3954,9 +3954,9 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3967,32 +3967,32 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="12.75">
       <c r="A4" s="44"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4013,9 +4013,9 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4036,16 +4036,16 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -4055,70 +4055,70 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" s="51" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="106" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="104" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" s="52" customFormat="1" ht="15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="12.75">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="25.5" outlineLevel="1">
       <c r="A12" s="56" t="s">
@@ -4130,13 +4130,13 @@
       <c r="C12" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="54"/>
-      <c r="H12" s="112">
+      <c r="H12" s="82">
         <v>43036</v>
       </c>
       <c r="I12" s="55" t="s">
@@ -4145,11 +4145,11 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
@@ -4168,13 +4168,13 @@
       <c r="C14" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="54"/>
-      <c r="H14" s="112">
+      <c r="H14" s="82">
         <v>43042</v>
       </c>
       <c r="I14" s="55" t="s">
@@ -4192,13 +4192,13 @@
       <c r="C15" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="54"/>
-      <c r="H15" s="112">
+      <c r="H15" s="82">
         <v>43042</v>
       </c>
       <c r="I15" s="55" t="s">
@@ -4216,13 +4216,13 @@
       <c r="C16" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="54"/>
-      <c r="H16" s="113">
+      <c r="H16" s="83">
         <v>43049</v>
       </c>
       <c r="I16" s="55" t="s">
@@ -4240,28 +4240,28 @@
       <c r="C17" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="109">
+      <c r="H17" s="80">
         <v>43049</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="114" t="s">
+      <c r="J17" s="84" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
       <c r="F18" s="70"/>
@@ -4280,13 +4280,13 @@
       <c r="C19" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="54"/>
-      <c r="H19" s="109">
+      <c r="H19" s="80">
         <v>43049</v>
       </c>
       <c r="I19" s="55" t="s">
@@ -4304,13 +4304,13 @@
       <c r="C20" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="54"/>
-      <c r="H20" s="116">
+      <c r="H20" s="86">
         <v>43054</v>
       </c>
       <c r="I20" s="55" t="s">
@@ -4328,35 +4328,35 @@
       <c r="C21" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="54"/>
-      <c r="H21" s="117">
+      <c r="H21" s="87">
         <v>43054</v>
       </c>
-      <c r="I21" s="115" t="s">
+      <c r="I21" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="84" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="12.75">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:14" s="58" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
       <c r="A23" s="56" t="s">
@@ -4368,12 +4368,12 @@
       <c r="C23" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="H23" s="117">
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="H23" s="87">
         <v>43060</v>
       </c>
       <c r="I23" s="75" t="s">
@@ -4391,12 +4391,12 @@
       <c r="C24" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="H24" s="117">
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="H24" s="87">
         <v>43060</v>
       </c>
       <c r="I24" s="75" t="s">
@@ -4414,12 +4414,12 @@
       <c r="C25" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="H25" s="117">
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="H25" s="87">
         <v>43060</v>
       </c>
       <c r="I25" s="73" t="s">
@@ -4441,12 +4441,12 @@
       <c r="C26" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="H26" s="117">
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="H26" s="87">
         <v>43061</v>
       </c>
       <c r="I26" s="73" t="s">
@@ -4455,18 +4455,18 @@
       <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="84"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="92"/>
     </row>
     <row r="28" spans="1:14" s="58" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="56" t="s">
@@ -4478,19 +4478,19 @@
       <c r="C28" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="H28" s="117">
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="H28" s="87">
         <v>43061</v>
       </c>
-      <c r="I28" s="119" t="s">
+      <c r="I28" s="89" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="58" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
@@ -4503,19 +4503,19 @@
       <c r="C29" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="H29" s="117">
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="H29" s="87">
         <v>43061</v>
       </c>
       <c r="I29" s="73" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="58" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
@@ -4528,19 +4528,19 @@
       <c r="C30" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="H30" s="117">
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="H30" s="87">
         <v>43061</v>
       </c>
-      <c r="I30" s="119" t="s">
+      <c r="I30" s="89" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="58" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
@@ -4553,12 +4553,12 @@
       <c r="C31" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="H31" s="117">
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="H31" s="87">
         <v>43061</v>
       </c>
       <c r="I31" s="73" t="s">
@@ -4576,12 +4576,12 @@
       <c r="C32" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="H32" s="117">
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="H32" s="87">
         <v>43062</v>
       </c>
       <c r="I32" s="73" t="s">
@@ -4590,18 +4590,18 @@
       <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="84"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="92"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="56" t="s">
@@ -4610,18 +4610,20 @@
       <c r="B34" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
+      <c r="C34" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="58"/>
       <c r="H34" s="65"/>
-      <c r="I34" s="118" t="s">
+      <c r="I34" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="59" t="s">
-        <v>93</v>
-      </c>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="I35"/>
@@ -4791,22 +4793,17 @@
     <row r="158" customFormat="1" ht="13.5"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:G9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A11:J11"/>
@@ -4820,17 +4817,22 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:G9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
